--- a/new.xlsx
+++ b/new.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,32 +412,46 @@
       <c r="C1" t="str">
         <v>C</v>
       </c>
+      <c r="D1" t="str">
+        <v>D</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>3</v>
-      </c>
-      <c r="B2" t="str">
-        <v>3</v>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>3</v>
-      </c>
-      <c r="B3" t="str">
-        <v>3</v>
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
       </c>
       <c r="C3">
         <v>6</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/new.xlsx
+++ b/new.xlsx
@@ -445,8 +445,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="D4">
-        <v>21</v>
+      <c r="D4" t="str">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
